--- a/output/fit_clients/fit_round_391.xlsx
+++ b/output/fit_clients/fit_round_391.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2164426906.430033</v>
+        <v>2044691709.969267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08544676014481503</v>
+        <v>0.08174289334759925</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03799528637950503</v>
+        <v>0.02899562888362654</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1082213470.962883</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2567394919.191864</v>
+        <v>1994279761.059342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1477328838413816</v>
+        <v>0.1598163623688942</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04378969041537925</v>
+        <v>0.03206848950829909</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1283697587.539403</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4480111577.578219</v>
+        <v>3411801976.896627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1584442211076253</v>
+        <v>0.1393840715358692</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02810210358992469</v>
+        <v>0.0249668053854114</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>141</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2240055836.99508</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3919400101.858961</v>
+        <v>4161718632.640227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08119948731558291</v>
+        <v>0.09729177918896421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04234552657437666</v>
+        <v>0.0450611670117877</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1959700059.943872</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2387903183.123068</v>
+        <v>2257379429.797853</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1170302476581651</v>
+        <v>0.1280281302581182</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0399496172782421</v>
+        <v>0.05281570179202343</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1193951579.190909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2687440614.191955</v>
+        <v>2080324634.303095</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09669859419958209</v>
+        <v>0.07059710799099596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04461401728765159</v>
+        <v>0.04293372127880116</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>122</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1343720302.09857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3289928865.195591</v>
+        <v>3848385080.033611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1827663126918369</v>
+        <v>0.189536398363885</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02625410849341353</v>
+        <v>0.02766101844119487</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1644964519.765118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2086875290.279886</v>
+        <v>2030012959.237514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.174543339652364</v>
+        <v>0.1270862007933541</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02897448929625866</v>
+        <v>0.02511931592661601</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1043437659.706194</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5667517714.216911</v>
+        <v>3864179288.506492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1695796949351334</v>
+        <v>0.1677835874248079</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04767834454463151</v>
+        <v>0.04707161485902711</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>164</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2833759008.149561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3642609948.300319</v>
+        <v>4043768266.263147</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1372121563483875</v>
+        <v>0.1194808263498881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04021527940470762</v>
+        <v>0.03686210122970911</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>161</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1821304961.921268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2137472457.307796</v>
+        <v>3183310881.333764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1963067628705865</v>
+        <v>0.1541004147680376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03553862092409974</v>
+        <v>0.04559152979858142</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>133</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1068736167.708431</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5229397047.539271</v>
+        <v>3791778997.886021</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0746208764874521</v>
+        <v>0.09524344914734184</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02425805524541591</v>
+        <v>0.02093965625601512</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>131</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2614698516.266297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3515235666.443248</v>
+        <v>2751967920.220993</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1770345162213505</v>
+        <v>0.1353312072428901</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03302006862621377</v>
+        <v>0.0434556101132455</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1757617830.364448</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1356365653.790162</v>
+        <v>1831265925.277524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08200493755156746</v>
+        <v>0.0938828298922383</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03262783473991733</v>
+        <v>0.03632385516551489</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>678182879.8523197</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1889352787.311506</v>
+        <v>2894362791.677816</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08385482789326716</v>
+        <v>0.0778297210412334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05026631184712847</v>
+        <v>0.04801000938957944</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>944676479.0506147</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5040015054.090815</v>
+        <v>3831623974.575888</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1583421207867384</v>
+        <v>0.1432117645482794</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03411874054042797</v>
+        <v>0.04585876366791636</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2520007510.242974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2417491203.937599</v>
+        <v>2687647778.694897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1649422922889439</v>
+        <v>0.1737587270477142</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02325683892452203</v>
+        <v>0.02731692930606337</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>128</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1208745674.475536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>866614793.6633199</v>
+        <v>1003888907.325516</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1263392809432123</v>
+        <v>0.1366228681827438</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02391864854588196</v>
+        <v>0.01909983148037808</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>433307393.605293</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2615065328.356771</v>
+        <v>1902458147.184301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09841128353705385</v>
+        <v>0.161293001518932</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02752389014490678</v>
+        <v>0.03013811970810274</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1307532625.029305</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1668295448.395133</v>
+        <v>2544528167.339372</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07969558698909109</v>
+        <v>0.08096350434176439</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03114488071173013</v>
+        <v>0.04374820579092605</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>834147791.8670323</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2973443138.062139</v>
+        <v>2629548696.934882</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1047296525446266</v>
+        <v>0.09954098449821772</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05457507489793922</v>
+        <v>0.0477336263129459</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>110</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1486721632.162011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1368359051.982712</v>
+        <v>1057971880.474577</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1814563357874812</v>
+        <v>0.1650924405436984</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03772047189913661</v>
+        <v>0.04061808986792037</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>684179534.1180944</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3269307627.048324</v>
+        <v>2980508289.038664</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1431901501844889</v>
+        <v>0.1088687382050157</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03516044773564706</v>
+        <v>0.02447085922747737</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>114</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1634653830.654557</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1484113157.696001</v>
+        <v>1269108353.946229</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09983294560468789</v>
+        <v>0.1201753473382346</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02200136634729931</v>
+        <v>0.02765368381910374</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>742056531.4569898</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1016679785.283679</v>
+        <v>1085782249.570658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0977525902973691</v>
+        <v>0.0907416443270187</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03078913864682854</v>
+        <v>0.02795084724038505</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>508339868.7942958</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3618695945.276655</v>
+        <v>2989842455.121328</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1337620828596517</v>
+        <v>0.1446196390996068</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02381757691039756</v>
+        <v>0.02357924002933338</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>97</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1809348001.730753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2946074541.808959</v>
+        <v>3086765058.458282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1202731154462738</v>
+        <v>0.1473389983028409</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03895722879245939</v>
+        <v>0.03952249358236588</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>125</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1473037277.486064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4653385628.014805</v>
+        <v>5792446613.823174</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1374657431724462</v>
+        <v>0.1300819695878315</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03482658653803837</v>
+        <v>0.04194156283352232</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>172</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2326692785.601118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1504175454.597958</v>
+        <v>2253991388.765191</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1091290899215995</v>
+        <v>0.1364287339262556</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02566181124820583</v>
+        <v>0.04029760171691331</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>752087708.2756017</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1243931995.056308</v>
+        <v>1287373574.165523</v>
       </c>
       <c r="F31" t="n">
-        <v>0.106083873971635</v>
+        <v>0.09189502700812707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04323098656110799</v>
+        <v>0.04023656258099454</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>621965938.6717471</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1238274374.808229</v>
+        <v>1690792238.878081</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07603934018423154</v>
+        <v>0.120210465703029</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02640817599044977</v>
+        <v>0.03188308447574055</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>619137201.5419929</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2394386507.994731</v>
+        <v>2235421970.669254</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1534186768689087</v>
+        <v>0.1788183106048366</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05130103159951286</v>
+        <v>0.05496730698632222</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1197193301.215176</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1132944530.202647</v>
+        <v>1090030303.163855</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1188683520343042</v>
+        <v>0.08017756586031298</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02339106517414421</v>
+        <v>0.02220644143218857</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>566472281.1468223</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>997032778.5212774</v>
+        <v>1008762749.38417</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09523386881060007</v>
+        <v>0.1042847541526525</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03687524972202115</v>
+        <v>0.03984847262681982</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>498516408.5041236</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2896165838.22839</v>
+        <v>2645340465.125741</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1711427187226539</v>
+        <v>0.1758843241809926</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02491166721744318</v>
+        <v>0.02577117666033541</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1448082909.339809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2426593554.822412</v>
+        <v>2271723509.339131</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1022253350929316</v>
+        <v>0.1105765104576259</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03360479929439913</v>
+        <v>0.04171403052875465</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>103</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1213296863.393013</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1477415363.440101</v>
+        <v>1474662788.776154</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09080728871055938</v>
+        <v>0.1075419959944981</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0266266187310258</v>
+        <v>0.030384474994314</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>738707734.1772484</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2039271164.09997</v>
+        <v>1798645944.262005</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1497280363296525</v>
+        <v>0.1630866611747448</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02526687206813315</v>
+        <v>0.02022961110611714</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1019635570.670529</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1810876564.49489</v>
+        <v>1452876441.308796</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1113031298468701</v>
+        <v>0.1520039835488019</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03775689836914221</v>
+        <v>0.03774155846782329</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>905438170.6367272</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2093954642.167639</v>
+        <v>2423436939.288669</v>
       </c>
       <c r="F41" t="n">
-        <v>0.165976684041106</v>
+        <v>0.1072245681747618</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04371308823928508</v>
+        <v>0.03213217687264618</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1046977386.101113</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3861406388.824884</v>
+        <v>4022817380.844798</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08579454470842439</v>
+        <v>0.09783225775370141</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0459565151425182</v>
+        <v>0.03030815437003269</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1930703214.151581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2429560076.390928</v>
+        <v>2974529990.23872</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1440714323377645</v>
+        <v>0.1402276405800804</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229570169982318</v>
+        <v>0.01975454447361424</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>136</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1214780093.966393</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1565680872.132926</v>
+        <v>2007850707.399859</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07184255258734255</v>
+        <v>0.09634017320169858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03113869352630151</v>
+        <v>0.03252627437907478</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>782840455.7619901</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1561638110.864937</v>
+        <v>2478177524.524313</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1429437565681347</v>
+        <v>0.1946020082109315</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04663415512257436</v>
+        <v>0.04060700986460138</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>780819002.13287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4264923182.251186</v>
+        <v>3582381909.936239</v>
       </c>
       <c r="F46" t="n">
-        <v>0.168794190621767</v>
+        <v>0.1442772604149221</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03782916476331258</v>
+        <v>0.04081233671400842</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>139</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2132461575.827925</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3407980826.350058</v>
+        <v>5104849400.673477</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1401420477281742</v>
+        <v>0.1368600197229694</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04461174602285905</v>
+        <v>0.03623876256916295</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>104</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1703990378.817742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3245055833.659949</v>
+        <v>3718939507.345881</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07673992014954799</v>
+        <v>0.07978885972974863</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02450061037456471</v>
+        <v>0.0257888207778297</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>127</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1622527995.070261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1567067284.396957</v>
+        <v>1538751954.261408</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1289889401923124</v>
+        <v>0.19082367272257</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03960938619794621</v>
+        <v>0.0310462317139337</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>783533663.8151624</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3139958383.907006</v>
+        <v>2915448990.247804</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1604583436635335</v>
+        <v>0.1629041748604977</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04898553806372934</v>
+        <v>0.03214996548748443</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>134</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1569979241.861494</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1287768423.679741</v>
+        <v>1089750002.342898</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1525000144297081</v>
+        <v>0.1862717449552493</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03948783004176607</v>
+        <v>0.04803460645064914</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>643884249.1808733</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4073406025.701096</v>
+        <v>3204024936.632848</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1023652163488183</v>
+        <v>0.0996500357477224</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04570321537821601</v>
+        <v>0.05541044047990898</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>161</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2036703065.02128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3456132329.37639</v>
+        <v>3752230702.11698</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1872907232416259</v>
+        <v>0.1628584304397807</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02542825020732373</v>
+        <v>0.02226708424785453</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>112</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1728066165.67406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4728258401.834051</v>
+        <v>4673132358.627777</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1135181412782331</v>
+        <v>0.1139616266047252</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04121610707303529</v>
+        <v>0.03808492857020258</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>128</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2364129322.206694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4875908150.161996</v>
+        <v>4674505502.012837</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2213572027999817</v>
+        <v>0.1506792576776265</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02121106884482597</v>
+        <v>0.03119207196895152</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2437954088.63796</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1278069593.904042</v>
+        <v>1244363099.91904</v>
       </c>
       <c r="F56" t="n">
-        <v>0.155738666101666</v>
+        <v>0.1116734531763038</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03872527070286087</v>
+        <v>0.03518628902074376</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>639034872.1030295</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3692723458.984661</v>
+        <v>3241392370.203177</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1719815542470001</v>
+        <v>0.1535881570663267</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02697080090218721</v>
+        <v>0.02145488297231824</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>124</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1846361792.073411</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1702477674.001803</v>
+        <v>1296095310.420128</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1328069387130474</v>
+        <v>0.1796889786844413</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03457551844232092</v>
+        <v>0.03068555689882969</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>851238849.6737617</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4406750452.725703</v>
+        <v>3299486682.934417</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08149225430746518</v>
+        <v>0.1284683162983574</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04555656495686337</v>
+        <v>0.04137847835111596</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2203375182.690748</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3042518842.478995</v>
+        <v>2537357187.773424</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1792283019911617</v>
+        <v>0.14695509131662</v>
       </c>
       <c r="G60" t="n">
-        <v>0.031823742258139</v>
+        <v>0.02851934812993744</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1521259496.062553</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2660311331.921256</v>
+        <v>2966010290.407356</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1382983708542491</v>
+        <v>0.1789487066827396</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0241489720955141</v>
+        <v>0.03139143597148992</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>134</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1330155678.475162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1793752021.760483</v>
+        <v>1289390360.505393</v>
       </c>
       <c r="F62" t="n">
-        <v>0.139698935780782</v>
+        <v>0.1832793904885833</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03678295389568747</v>
+        <v>0.03513968589382723</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>896876037.9912637</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4527681971.246293</v>
+        <v>5606015729.850037</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06888441515338731</v>
+        <v>0.08238712726118548</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04589549792789907</v>
+        <v>0.04042294919619729</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2263841024.476984</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3895635939.913683</v>
+        <v>5121894067.794584</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1216130303977639</v>
+        <v>0.1251245801206003</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03000283234846066</v>
+        <v>0.03487915490235961</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>121</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1947817998.49404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5351380099.472841</v>
+        <v>5388537926.452706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1716072518677782</v>
+        <v>0.1607802168429514</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02676830674394754</v>
+        <v>0.02974158840513889</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>140</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2675689987.695391</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3494296553.890569</v>
+        <v>3985143204.394423</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072552685030508</v>
+        <v>0.1434765778074221</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03871313866398763</v>
+        <v>0.04411239567614689</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1747148223.450512</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2961114662.454592</v>
+        <v>3146386967.808512</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09141641905529609</v>
+        <v>0.07846381472633589</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03421878793702018</v>
+        <v>0.04604514349102345</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>125</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1480557352.800401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4705658634.996351</v>
+        <v>5029265128.007074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1398076911498281</v>
+        <v>0.1026439161554304</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04313963637013062</v>
+        <v>0.0320054495510315</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2352829356.073722</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1859771717.306293</v>
+        <v>1826025052.35407</v>
       </c>
       <c r="F69" t="n">
-        <v>0.139916425788315</v>
+        <v>0.1338929472694679</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04933568306967222</v>
+        <v>0.05226813699791265</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>929885845.516162</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3480831851.955039</v>
+        <v>3162940785.601228</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07987492148103857</v>
+        <v>0.07186755775360393</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03518017859198914</v>
+        <v>0.03702320937610096</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>112</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1740415934.345605</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5029975064.408232</v>
+        <v>4397531229.429245</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1122076545599774</v>
+        <v>0.154196994789988</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02878730387509115</v>
+        <v>0.02920465912387464</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>142</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2514987640.194826</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1453740283.528014</v>
+        <v>1549119562.182223</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0907313379918842</v>
+        <v>0.1065073489648455</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05173893277893817</v>
+        <v>0.04883798072435129</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>726870176.2382288</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2463236984.306034</v>
+        <v>2771396644.283219</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09178910758215335</v>
+        <v>0.06958294589407202</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03722811448570907</v>
+        <v>0.03274150068970985</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>148</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1231618537.314107</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3674202662.312396</v>
+        <v>3685669298.876078</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1598315748712184</v>
+        <v>0.1617233458135568</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02852308751767145</v>
+        <v>0.03272359773731295</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>133</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1837101338.247308</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1520167856.641878</v>
+        <v>1894855867.916595</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1306829988030437</v>
+        <v>0.1561492882636428</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02542857188482548</v>
+        <v>0.03269107589554372</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>760083937.4689174</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5127297599.496438</v>
+        <v>3622275056.382669</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0854678771135767</v>
+        <v>0.0984945685774265</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02211223958051143</v>
+        <v>0.02165473701529495</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2563648831.760252</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2254769746.729577</v>
+        <v>2258084879.06599</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1592311440515762</v>
+        <v>0.1123749284844354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02240597723599667</v>
+        <v>0.02102450914761989</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1127384972.560462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3633969523.074381</v>
+        <v>3027837095.514829</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1005874816697846</v>
+        <v>0.1304781769952203</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04393268694877677</v>
+        <v>0.04174070287231035</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>136</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1816984753.474524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1852089867.33256</v>
+        <v>1242989769.165588</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1380300465509706</v>
+        <v>0.1403274409434862</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02973062448554491</v>
+        <v>0.03772191467143199</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>926045029.4451102</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3733276397.328265</v>
+        <v>4988566562.803309</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07424053974622806</v>
+        <v>0.08957380331291186</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02984418691684044</v>
+        <v>0.03711309659785692</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1866638184.879581</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3774110143.189274</v>
+        <v>5115985896.130599</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1347555023969523</v>
+        <v>0.0832262351546294</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02083405602225575</v>
+        <v>0.0250823615789425</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1887055026.444124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3938981912.256822</v>
+        <v>4623609664.694057</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1470828254985007</v>
+        <v>0.2095518256152379</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02582699242090709</v>
+        <v>0.02763791370073318</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>136</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1969490999.308419</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2102664905.418055</v>
+        <v>2192187420.294499</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1225592316991029</v>
+        <v>0.1050929424009329</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03717289670977691</v>
+        <v>0.03471934233269341</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1051332450.840258</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2242904552.778186</v>
+        <v>2223945764.369469</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1127683143193251</v>
+        <v>0.08658775608441394</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04622527514393817</v>
+        <v>0.04518216310594678</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1121452245.842811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2243704805.402167</v>
+        <v>3428986960.622055</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1151878834636551</v>
+        <v>0.1277676912753024</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03755346312682445</v>
+        <v>0.03785999984784004</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>147</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1121852379.397654</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2806556861.475912</v>
+        <v>1923426820.117799</v>
       </c>
       <c r="F86" t="n">
-        <v>0.171709499286031</v>
+        <v>0.1427533594064214</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02598638624897305</v>
+        <v>0.02429468354627963</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1403278570.543344</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>912828324.027742</v>
+        <v>1432446244.507966</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1173590528641654</v>
+        <v>0.1588801928371182</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02750731349854275</v>
+        <v>0.0314313751430602</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>456414144.0046164</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2730369242.153286</v>
+        <v>3417581193.515704</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1776993806675572</v>
+        <v>0.1558880074248486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0259209679229725</v>
+        <v>0.03672004966336191</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>153</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1365184624.884717</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2812051092.360123</v>
+        <v>3217693764.966052</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1520782093947045</v>
+        <v>0.1523164815011715</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03752283144204876</v>
+        <v>0.0292227265625836</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>132</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1406025598.080462</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1429478009.411436</v>
+        <v>1863711310.242285</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1276554015208216</v>
+        <v>0.1369980598141183</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04854657359868086</v>
+        <v>0.04672710065384499</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>714738970.5753503</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1304278171.632464</v>
+        <v>2044488232.453907</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1909792308405695</v>
+        <v>0.175344305996039</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05090345337967718</v>
+        <v>0.05965967874409035</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>652139150.8581256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2366086331.845304</v>
+        <v>2842692820.205443</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07568134043178461</v>
+        <v>0.09407645060572782</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03644644220131737</v>
+        <v>0.03672423917324148</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1183043139.81379</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4916033989.155926</v>
+        <v>3308741873.189814</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1209052721473612</v>
+        <v>0.1187540987877645</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04462179481157811</v>
+        <v>0.05010037951596164</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>120</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2458016935.955035</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2487276786.122468</v>
+        <v>2133215212.202151</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1187602312495423</v>
+        <v>0.1556206847995414</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02735573901982799</v>
+        <v>0.03743292838616976</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1243638454.834802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2417476132.338506</v>
+        <v>2781307259.063562</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1224224750746944</v>
+        <v>0.1097883215752772</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04919106329245318</v>
+        <v>0.05186064598006113</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1208738108.257558</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1650262531.6222</v>
+        <v>2017762468.138454</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127271171543791</v>
+        <v>0.08674367026934518</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04168665657875296</v>
+        <v>0.02991535608231302</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>825131290.1256878</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3363890573.219986</v>
+        <v>4925050633.248984</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1385769061283757</v>
+        <v>0.1260339727332474</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02042673762381166</v>
+        <v>0.02587804160149253</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1681945291.845912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3134396392.155159</v>
+        <v>2768828418.809199</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1137177676579132</v>
+        <v>0.08224744335463037</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02349972550122845</v>
+        <v>0.02767729606281891</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>106</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1567198189.882715</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2893943951.2145</v>
+        <v>2408551301.285751</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09170733746329414</v>
+        <v>0.1385134584728829</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02161914037466029</v>
+        <v>0.0342567056530779</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1446971953.871652</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3443704750.283282</v>
+        <v>3782591709.513937</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1671834099509072</v>
+        <v>0.1353168970798213</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02432383348951607</v>
+        <v>0.02727586762910724</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>120</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1721852401.419063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2316561045.434813</v>
+        <v>2905489758.943316</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1499676841610902</v>
+        <v>0.1928162237718547</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05291955742839471</v>
+        <v>0.04450258413282965</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>159</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1158280521.455258</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_391.xlsx
+++ b/output/fit_clients/fit_round_391.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2044691709.969267</v>
+        <v>1716799587.208783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08174289334759925</v>
+        <v>0.07742869865462297</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02899562888362654</v>
+        <v>0.04063729800288906</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1994279761.059342</v>
+        <v>1919225410.680483</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1598163623688942</v>
+        <v>0.1289000284719229</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03206848950829909</v>
+        <v>0.04490871164336514</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3411801976.896627</v>
+        <v>4075138442.641476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1393840715358692</v>
+        <v>0.1300079968021331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0249668053854114</v>
+        <v>0.03067470961200293</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4161718632.640227</v>
+        <v>2707166332.374808</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09729177918896421</v>
+        <v>0.08039489675367276</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0450611670117877</v>
+        <v>0.04653599912814623</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2257379429.797853</v>
+        <v>2136788291.909865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1280281302581182</v>
+        <v>0.1000514229279515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05281570179202343</v>
+        <v>0.03460510853148976</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2080324634.303095</v>
+        <v>2656660315.168248</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07059710799099596</v>
+        <v>0.09974154628975158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04293372127880116</v>
+        <v>0.04694624012175214</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3848385080.033611</v>
+        <v>3472365413.702902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.189536398363885</v>
+        <v>0.2110397358062824</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02766101844119487</v>
+        <v>0.03226360425807361</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2030012959.237514</v>
+        <v>2244061630.163242</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1270862007933541</v>
+        <v>0.1506343345410177</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02511931592661601</v>
+        <v>0.02399500328952511</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3864179288.506492</v>
+        <v>5533825335.626453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1677835874248079</v>
+        <v>0.1895859645636616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04707161485902711</v>
+        <v>0.04441844506106399</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4043768266.263147</v>
+        <v>3343826526.2132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1194808263498881</v>
+        <v>0.1404388812086738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03686210122970911</v>
+        <v>0.04666594199912489</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3183310881.333764</v>
+        <v>2704428809.254537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1541004147680376</v>
+        <v>0.1453939570737406</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04559152979858142</v>
+        <v>0.03593400825781441</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3791778997.886021</v>
+        <v>3320409105.259098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09524344914734184</v>
+        <v>0.07608541189132448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02093965625601512</v>
+        <v>0.03141810988939933</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2751967920.220993</v>
+        <v>2754119334.12212</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1353312072428901</v>
+        <v>0.1467242758214972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0434556101132455</v>
+        <v>0.03931976102792142</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1831265925.277524</v>
+        <v>1777323304.886095</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0938828298922383</v>
+        <v>0.0663919731825971</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03632385516551489</v>
+        <v>0.03612573643183523</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2894362791.677816</v>
+        <v>2265060124.896904</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0778297210412334</v>
+        <v>0.09671445673197612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04801000938957944</v>
+        <v>0.04021717606824598</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3831623974.575888</v>
+        <v>5265119407.046516</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1432117645482794</v>
+        <v>0.1663826328817137</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04585876366791636</v>
+        <v>0.04291035969880512</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2687647778.694897</v>
+        <v>3012124974.19303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1737587270477142</v>
+        <v>0.1173981177619468</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02731692930606337</v>
+        <v>0.02550645266323766</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1003888907.325516</v>
+        <v>1134074809.334756</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1366228681827438</v>
+        <v>0.1844594656483384</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01909983148037808</v>
+        <v>0.02675156514149823</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1902458147.184301</v>
+        <v>2149294056.558633</v>
       </c>
       <c r="F20" t="n">
-        <v>0.161293001518932</v>
+        <v>0.1011857373248984</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03013811970810274</v>
+        <v>0.02202868582201956</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2544528167.339372</v>
+        <v>2588462809.53263</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08096350434176439</v>
+        <v>0.09437365242238105</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04374820579092605</v>
+        <v>0.03717895348327244</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2629548696.934882</v>
+        <v>3239962573.211102</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09954098449821772</v>
+        <v>0.1305574918554432</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0477336263129459</v>
+        <v>0.04524777398749917</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1057971880.474577</v>
+        <v>1461092242.081722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1650924405436984</v>
+        <v>0.1234105785569334</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04061808986792037</v>
+        <v>0.04085854093627619</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2980508289.038664</v>
+        <v>3682628937.208716</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1088687382050157</v>
+        <v>0.110732633808307</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02447085922747737</v>
+        <v>0.02286434512946438</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1269108353.946229</v>
+        <v>1058822713.741135</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201753473382346</v>
+        <v>0.09641943369337763</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02765368381910374</v>
+        <v>0.03061054238717566</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1085782249.570658</v>
+        <v>1058218479.199943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0907416443270187</v>
+        <v>0.1001391613340739</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02795084724038505</v>
+        <v>0.03385645423513756</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2989842455.121328</v>
+        <v>3956024583.511795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1446196390996068</v>
+        <v>0.1289496022097829</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02357924002933338</v>
+        <v>0.02348870021593996</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3086765058.458282</v>
+        <v>3280288654.969554</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1473389983028409</v>
+        <v>0.09267134763655127</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03952249358236588</v>
+        <v>0.05008968094967201</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5792446613.823174</v>
+        <v>5846067905.905423</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1300819695878315</v>
+        <v>0.0970691120757248</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04194156283352232</v>
+        <v>0.03394030663868751</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2253991388.765191</v>
+        <v>2395670266.142809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1364287339262556</v>
+        <v>0.1290300364944326</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04029760171691331</v>
+        <v>0.0297338482601892</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1287373574.165523</v>
+        <v>1474201168.293466</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09189502700812707</v>
+        <v>0.07752035394210621</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04023656258099454</v>
+        <v>0.04928212127745629</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1690792238.878081</v>
+        <v>1498410338.676604</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120210465703029</v>
+        <v>0.1164740608372882</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03188308447574055</v>
+        <v>0.03108557348313672</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2235421970.669254</v>
+        <v>2986832043.040447</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1788183106048366</v>
+        <v>0.1776776156213803</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05496730698632222</v>
+        <v>0.0613136563789442</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1090030303.163855</v>
+        <v>1194690781.122569</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08017756586031298</v>
+        <v>0.1075813686298689</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02220644143218857</v>
+        <v>0.02473852012728908</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1008762749.38417</v>
+        <v>1107124896.095669</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1042847541526525</v>
+        <v>0.1003950254946398</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03984847262681982</v>
+        <v>0.03976853479267547</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2645340465.125741</v>
+        <v>2717760362.534919</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1758843241809926</v>
+        <v>0.1184516340447491</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02577117666033541</v>
+        <v>0.02453703927446772</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2271723509.339131</v>
+        <v>1976727268.155447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1105765104576259</v>
+        <v>0.1115954600055752</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04171403052875465</v>
+        <v>0.03744634920835592</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1474662788.776154</v>
+        <v>1819529697.643185</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1075419959944981</v>
+        <v>0.1154263763221093</v>
       </c>
       <c r="G38" t="n">
-        <v>0.030384474994314</v>
+        <v>0.03261674933393055</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1798645944.262005</v>
+        <v>2115680565.741733</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1630866611747448</v>
+        <v>0.1517965124047867</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02022961110611714</v>
+        <v>0.02505106885760384</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1452876441.308796</v>
+        <v>1175394110.565076</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1520039835488019</v>
+        <v>0.1267602482106261</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03774155846782329</v>
+        <v>0.05221283230489297</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2423436939.288669</v>
+        <v>2700244438.29982</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1072245681747618</v>
+        <v>0.1338768138785782</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03213217687264618</v>
+        <v>0.04306649167806029</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4022817380.844798</v>
+        <v>4325434500.056816</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09783225775370141</v>
+        <v>0.08456048678142108</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03030815437003269</v>
+        <v>0.04015635094744126</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2974529990.23872</v>
+        <v>2652512329.924038</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1402276405800804</v>
+        <v>0.2020117188752739</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01975454447361424</v>
+        <v>0.01606493737992675</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2007850707.399859</v>
+        <v>1620137417.656001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09634017320169858</v>
+        <v>0.09704376457205455</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03252627437907478</v>
+        <v>0.02843109688531821</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2478177524.524313</v>
+        <v>2400169413.487608</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1946020082109315</v>
+        <v>0.1895754700947801</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04060700986460138</v>
+        <v>0.04555662474300461</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3582381909.936239</v>
+        <v>5308613029.742544</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1442772604149221</v>
+        <v>0.1787568823063103</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04081233671400842</v>
+        <v>0.04708246860837331</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5104849400.673477</v>
+        <v>4459925734.675919</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1368600197229694</v>
+        <v>0.1268331250798319</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03623876256916295</v>
+        <v>0.03673936542826545</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3718939507.345881</v>
+        <v>3776526988.705352</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07978885972974863</v>
+        <v>0.09966584063153018</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0257888207778297</v>
+        <v>0.03344040909719118</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1538751954.261408</v>
+        <v>1368563916.715973</v>
       </c>
       <c r="F49" t="n">
-        <v>0.19082367272257</v>
+        <v>0.1540704967701776</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0310462317139337</v>
+        <v>0.02917616344932162</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2915448990.247804</v>
+        <v>3343139129.337892</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1629041748604977</v>
+        <v>0.1333145351356982</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03214996548748443</v>
+        <v>0.04762269509988803</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1089750002.342898</v>
+        <v>1261286437.693411</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1862717449552493</v>
+        <v>0.1618213951789289</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04803460645064914</v>
+        <v>0.03674264622025993</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3204024936.632848</v>
+        <v>5168014528.329521</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0996500357477224</v>
+        <v>0.1035021189530843</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05541044047990898</v>
+        <v>0.05910277287698543</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3752230702.11698</v>
+        <v>3393666599.183542</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1628584304397807</v>
+        <v>0.1936416357305178</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02226708424785453</v>
+        <v>0.02917822286849282</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4673132358.627777</v>
+        <v>3534696922.023755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1139616266047252</v>
+        <v>0.1403907949816803</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03808492857020258</v>
+        <v>0.04188184654459816</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4674505502.012837</v>
+        <v>4828305413.425264</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1506792576776265</v>
+        <v>0.1985876913192081</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03119207196895152</v>
+        <v>0.02432022899169951</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1244363099.91904</v>
+        <v>1795882477.261044</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1116734531763038</v>
+        <v>0.1104945719445949</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03518628902074376</v>
+        <v>0.03691991173682115</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3241392370.203177</v>
+        <v>4049355863.474204</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1535881570663267</v>
+        <v>0.1356185938438531</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02145488297231824</v>
+        <v>0.01682831570304595</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1296095310.420128</v>
+        <v>1586202976.801428</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1796889786844413</v>
+        <v>0.1762005413373949</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03068555689882969</v>
+        <v>0.02719600922795672</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3299486682.934417</v>
+        <v>4801803784.234192</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284683162983574</v>
+        <v>0.1156645637732272</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04137847835111596</v>
+        <v>0.04549730887066234</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2537357187.773424</v>
+        <v>2493185354.10575</v>
       </c>
       <c r="F60" t="n">
-        <v>0.14695509131662</v>
+        <v>0.1848964825889451</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02851934812993744</v>
+        <v>0.0317002635288335</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2966010290.407356</v>
+        <v>2882986996.955535</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1789487066827396</v>
+        <v>0.1528209414361776</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03139143597148992</v>
+        <v>0.03248877142645264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1289390360.505393</v>
+        <v>1946931285.455794</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1832793904885833</v>
+        <v>0.1232495668319514</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03513968589382723</v>
+        <v>0.03198758500040746</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5606015729.850037</v>
+        <v>3641844842.17783</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08238712726118548</v>
+        <v>0.068164945415171</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04042294919619729</v>
+        <v>0.02953241821614581</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5121894067.794584</v>
+        <v>4248660341.264126</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1251245801206003</v>
+        <v>0.1267107043911228</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03487915490235961</v>
+        <v>0.02923360159184446</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5388537926.452706</v>
+        <v>5689152931.751716</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1607802168429514</v>
+        <v>0.1562468357663205</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02974158840513889</v>
+        <v>0.02697023338134241</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3985143204.394423</v>
+        <v>5542867313.643458</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1434765778074221</v>
+        <v>0.1520463154826977</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04411239567614689</v>
+        <v>0.05056134699643885</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3146386967.808512</v>
+        <v>3420352717.423531</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07846381472633589</v>
+        <v>0.08912422763805304</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04604514349102345</v>
+        <v>0.03808535513683511</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5029265128.007074</v>
+        <v>4823890995.148121</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1026439161554304</v>
+        <v>0.1178330831852843</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0320054495510315</v>
+        <v>0.04184206158469597</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1826025052.35407</v>
+        <v>1975109168.898409</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1338929472694679</v>
+        <v>0.1395565165602952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05226813699791265</v>
+        <v>0.04478707028416661</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3162940785.601228</v>
+        <v>3376237933.245043</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07186755775360393</v>
+        <v>0.07879239298938388</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03702320937610096</v>
+        <v>0.04465854961767225</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4397531229.429245</v>
+        <v>4091431911.468813</v>
       </c>
       <c r="F71" t="n">
-        <v>0.154196994789988</v>
+        <v>0.1197678517304075</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02920465912387464</v>
+        <v>0.02077409182219289</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1549119562.182223</v>
+        <v>1929607915.734145</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1065073489648455</v>
+        <v>0.07918032857820557</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04883798072435129</v>
+        <v>0.03908373243799805</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2771396644.283219</v>
+        <v>3364380982.270496</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06958294589407202</v>
+        <v>0.09466926316853948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03274150068970985</v>
+        <v>0.03882525707300023</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3685669298.876078</v>
+        <v>3922896198.930668</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1617233458135568</v>
+        <v>0.1751744762627012</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03272359773731295</v>
+        <v>0.03024427646172731</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1894855867.916595</v>
+        <v>1962052969.234919</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1561492882636428</v>
+        <v>0.136662349891918</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03269107589554372</v>
+        <v>0.03228701765557625</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3622275056.382669</v>
+        <v>4347802763.180807</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0984945685774265</v>
+        <v>0.1161745144225372</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02165473701529495</v>
+        <v>0.02521921917710939</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2258084879.06599</v>
+        <v>1977368185.583854</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1123749284844354</v>
+        <v>0.1684486168850088</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02102450914761989</v>
+        <v>0.03094319863595037</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3027837095.514829</v>
+        <v>3796961618.095924</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304781769952203</v>
+        <v>0.09071287757590446</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04174070287231035</v>
+        <v>0.05239059783743114</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1242989769.165588</v>
+        <v>1782520975.628727</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1403274409434862</v>
+        <v>0.1671290398996435</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03772191467143199</v>
+        <v>0.02975684796773632</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4988566562.803309</v>
+        <v>4146967772.994201</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08957380331291186</v>
+        <v>0.1039273935935639</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03711309659785692</v>
+        <v>0.03820880434047581</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5115985896.130599</v>
+        <v>4388412952.794838</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0832262351546294</v>
+        <v>0.1186930981995578</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0250823615789425</v>
+        <v>0.02564081443511146</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4623609664.694057</v>
+        <v>4662463307.270063</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2095518256152379</v>
+        <v>0.1369702723042828</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02763791370073318</v>
+        <v>0.0188968039846369</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2192187420.294499</v>
+        <v>1780853407.444771</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1050929424009329</v>
+        <v>0.1095692255411991</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03471934233269341</v>
+        <v>0.03398498069529009</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2223945764.369469</v>
+        <v>1877539390.736579</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08658775608441394</v>
+        <v>0.1197460630300146</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04518216310594678</v>
+        <v>0.03296149049174041</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3428986960.622055</v>
+        <v>2767986041.8207</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1277676912753024</v>
+        <v>0.1627701027559143</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03785999984784004</v>
+        <v>0.04463851670695015</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1923426820.117799</v>
+        <v>1697172537.977042</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1427533594064214</v>
+        <v>0.130846301086405</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02429468354627963</v>
+        <v>0.02077247668561942</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1432446244.507966</v>
+        <v>974174264.568581</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1588801928371182</v>
+        <v>0.1734210834211344</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0314313751430602</v>
+        <v>0.04060671924174292</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3417581193.515704</v>
+        <v>3625123484.682836</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1558880074248486</v>
+        <v>0.1243359630847414</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03672004966336191</v>
+        <v>0.03641241354792138</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3217693764.966052</v>
+        <v>3365491637.89949</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1523164815011715</v>
+        <v>0.1081075961222865</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0292227265625836</v>
+        <v>0.026153310362623</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1863711310.242285</v>
+        <v>2043538346.826572</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1369980598141183</v>
+        <v>0.122618210897933</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04672710065384499</v>
+        <v>0.03886028801954526</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2044488232.453907</v>
+        <v>1758452893.422239</v>
       </c>
       <c r="F91" t="n">
-        <v>0.175344305996039</v>
+        <v>0.1292967044720476</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05965967874409035</v>
+        <v>0.06015688141771251</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2842692820.205443</v>
+        <v>2172185133.626984</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09407645060572782</v>
+        <v>0.103036504453218</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03672423917324148</v>
+        <v>0.03216056062605789</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3308741873.189814</v>
+        <v>3867266666.287961</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1187540987877645</v>
+        <v>0.1354351722324013</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05010037951596164</v>
+        <v>0.04876313870027319</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2133215212.202151</v>
+        <v>2454123778.39799</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1556206847995414</v>
+        <v>0.1168913014615407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03743292838616976</v>
+        <v>0.03442857278082438</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2781307259.063562</v>
+        <v>2379251183.579667</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1097883215752772</v>
+        <v>0.1214456131582628</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05186064598006113</v>
+        <v>0.04861822320221557</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2017762468.138454</v>
+        <v>1928583974.7692</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08674367026934518</v>
+        <v>0.1331661976795045</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02991535608231302</v>
+        <v>0.03800957687383601</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4925050633.248984</v>
+        <v>4734271119.047856</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1260339727332474</v>
+        <v>0.1361837671819277</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02587804160149253</v>
+        <v>0.02531645242564857</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2768828418.809199</v>
+        <v>2639440172.275077</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08224744335463037</v>
+        <v>0.1001143281355683</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02767729606281891</v>
+        <v>0.02301422860991567</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2408551301.285751</v>
+        <v>3174600978.729181</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1385134584728829</v>
+        <v>0.1210770978861643</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0342567056530779</v>
+        <v>0.03106432352123736</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3782591709.513937</v>
+        <v>2950911680.922155</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1353168970798213</v>
+        <v>0.1500582501736062</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02727586762910724</v>
+        <v>0.02031937888738449</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2905489758.943316</v>
+        <v>3117768251.526769</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1928162237718547</v>
+        <v>0.1813773944870769</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04450258413282965</v>
+        <v>0.05496954456182734</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_391.xlsx
+++ b/output/fit_clients/fit_round_391.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1716799587.208783</v>
+        <v>2339472605.604189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07742869865462297</v>
+        <v>0.07050297518232039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04063729800288906</v>
+        <v>0.04320897973989068</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1919225410.680483</v>
+        <v>1734704947.819033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1289000284719229</v>
+        <v>0.1705053652399654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04490871164336514</v>
+        <v>0.03928327545308863</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4075138442.641476</v>
+        <v>3601444882.957542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1300079968021331</v>
+        <v>0.1594947059362852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03067470961200293</v>
+        <v>0.02306934765820366</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>199</v>
+      </c>
+      <c r="J4" t="n">
+        <v>390</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34.19622617349273</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2707166332.374808</v>
+        <v>4159737194.426557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08039489675367276</v>
+        <v>0.09639655690337329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04653599912814623</v>
+        <v>0.03439494624827372</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>159</v>
+      </c>
+      <c r="J5" t="n">
+        <v>391</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.31803686351352</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2136788291.909865</v>
+        <v>1776409167.066464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1000514229279515</v>
+        <v>0.1472718909839091</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03460510853148976</v>
+        <v>0.05169312200689732</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2656660315.168248</v>
+        <v>2107956145.564188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09974154628975158</v>
+        <v>0.09499669872432474</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04694624012175214</v>
+        <v>0.04289154284462134</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3472365413.702902</v>
+        <v>2563142591.524107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2110397358062824</v>
+        <v>0.1389955181510328</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03226360425807361</v>
+        <v>0.03268219915848408</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>106</v>
+      </c>
+      <c r="J8" t="n">
+        <v>390</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.71315521608511</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2244061630.163242</v>
+        <v>1422570456.993479</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1506343345410177</v>
+        <v>0.1443513703872525</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02399500328952511</v>
+        <v>0.03302211579738379</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5533825335.626453</v>
+        <v>4982965804.914299</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1895859645636616</v>
+        <v>0.2093866333108834</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04441844506106399</v>
+        <v>0.05228936364415263</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>318</v>
+      </c>
+      <c r="J10" t="n">
+        <v>391</v>
+      </c>
+      <c r="K10" t="n">
+        <v>56.5143963855534</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3343826526.2132</v>
+        <v>2769239360.623249</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1404388812086738</v>
+        <v>0.1903661223788383</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04666594199912489</v>
+        <v>0.04817999551784025</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>164</v>
+      </c>
+      <c r="J11" t="n">
+        <v>389</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2704428809.254537</v>
+        <v>2086893091.648167</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1453939570737406</v>
+        <v>0.1976013070831132</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03593400825781441</v>
+        <v>0.03357700982108804</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3320409105.259098</v>
+        <v>5082248398.77258</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07608541189132448</v>
+        <v>0.09035930674225393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03141810988939933</v>
+        <v>0.02210255337537522</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>204</v>
+      </c>
+      <c r="J13" t="n">
+        <v>390</v>
+      </c>
+      <c r="K13" t="n">
+        <v>50.1708889099392</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2754119334.12212</v>
+        <v>3293258631.527864</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1467242758214972</v>
+        <v>0.145205791395719</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03931976102792142</v>
+        <v>0.02921903058748795</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1777323304.886095</v>
+        <v>1362323911.858851</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0663919731825971</v>
+        <v>0.1059971521568352</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03612573643183523</v>
+        <v>0.0463954760772159</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2265060124.896904</v>
+        <v>2589301087.91271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09671445673197612</v>
+        <v>0.07039003838023657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04021717606824598</v>
+        <v>0.04002915952932205</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5265119407.046516</v>
+        <v>4731682243.839895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1663826328817137</v>
+        <v>0.1144774573122268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04291035969880512</v>
+        <v>0.03534338849271379</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>188</v>
+      </c>
+      <c r="J17" t="n">
+        <v>390</v>
+      </c>
+      <c r="K17" t="n">
+        <v>48.88179937516674</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3012124974.19303</v>
+        <v>3024360004.033686</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1173981177619468</v>
+        <v>0.1750105270327962</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02550645266323766</v>
+        <v>0.03203254182793075</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1134074809.334756</v>
+        <v>1226419625.839259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1844594656483384</v>
+        <v>0.1581703368656854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02675156514149823</v>
+        <v>0.02577450586084865</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2149294056.558633</v>
+        <v>2369900772.256801</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1011857373248984</v>
+        <v>0.1486947414952906</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02202868582201956</v>
+        <v>0.03004130558935391</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2588462809.53263</v>
+        <v>2145964079.986585</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09437365242238105</v>
+        <v>0.09075135086937172</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03717895348327244</v>
+        <v>0.03129019083439516</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3239962573.211102</v>
+        <v>3314645263.165204</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305574918554432</v>
+        <v>0.1222127910354221</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04524777398749917</v>
+        <v>0.04382468708249283</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1461092242.081722</v>
+        <v>1417289638.912829</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1234105785569334</v>
+        <v>0.179891471813805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04085854093627619</v>
+        <v>0.05372916397167572</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3682628937.208716</v>
+        <v>2847625357.939693</v>
       </c>
       <c r="F24" t="n">
-        <v>0.110732633808307</v>
+        <v>0.1073773771895467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02286434512946438</v>
+        <v>0.03510324719931196</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>121</v>
+      </c>
+      <c r="J24" t="n">
+        <v>390</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22.93761273783496</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1058822713.741135</v>
+        <v>1150319084.507563</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09641943369337763</v>
+        <v>0.09986398169848014</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03061054238717566</v>
+        <v>0.01985151138239886</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1058218479.199943</v>
+        <v>957045940.2150347</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1001391613340739</v>
+        <v>0.0877378900580829</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03385645423513756</v>
+        <v>0.03716463603827918</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3956024583.511795</v>
+        <v>3146058943.008875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1289496022097829</v>
+        <v>0.09582325914088918</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02348870021593996</v>
+        <v>0.02426178640524775</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>163</v>
+      </c>
+      <c r="J27" t="n">
+        <v>390</v>
+      </c>
+      <c r="K27" t="n">
+        <v>27.39594695747844</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3280288654.969554</v>
+        <v>3858517129.654887</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09267134763655127</v>
+        <v>0.109585347970425</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05008968094967201</v>
+        <v>0.03090554586274802</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>93</v>
+      </c>
+      <c r="J28" t="n">
+        <v>391</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1456,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5846067905.905423</v>
+        <v>5249023248.626345</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0970691120757248</v>
+        <v>0.1217104794662449</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03394030663868751</v>
+        <v>0.04130873265543991</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>334</v>
+      </c>
+      <c r="J29" t="n">
+        <v>391</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2395670266.142809</v>
+        <v>2162339908.346423</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1290300364944326</v>
+        <v>0.105167583416286</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0297338482601892</v>
+        <v>0.03529697001712447</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1474201168.293466</v>
+        <v>1454430784.733748</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07752035394210621</v>
+        <v>0.09744720321098974</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04928212127745629</v>
+        <v>0.03624735263480774</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1498410338.676604</v>
+        <v>1236639861.889286</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1164740608372882</v>
+        <v>0.111156789177324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03108557348313672</v>
+        <v>0.03879418388506418</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2986832043.040447</v>
+        <v>3048651913.930989</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1776776156213803</v>
+        <v>0.1692086600299497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0613136563789442</v>
+        <v>0.04941398911053842</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1194690781.122569</v>
+        <v>1535293418.116462</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1075813686298689</v>
+        <v>0.07577076690192862</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02473852012728908</v>
+        <v>0.02510338320487799</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1107124896.095669</v>
+        <v>881654520.2778965</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1003950254946398</v>
+        <v>0.09928867054460597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03976853479267547</v>
+        <v>0.04207403391814352</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2717760362.534919</v>
+        <v>2887248806.222004</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1184516340447491</v>
+        <v>0.1144065617641737</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02453703927446772</v>
+        <v>0.02803185781912646</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1976727268.155447</v>
+        <v>2340652735.512447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1115954600055752</v>
+        <v>0.08406691428409878</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03744634920835592</v>
+        <v>0.03142281009503532</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1819529697.643185</v>
+        <v>1584914697.988775</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1154263763221093</v>
+        <v>0.07658796796886623</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03261674933393055</v>
+        <v>0.03179112927986542</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2115680565.741733</v>
+        <v>1872709833.785487</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1517965124047867</v>
+        <v>0.1464956533604557</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02505106885760384</v>
+        <v>0.02657043281122909</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1175394110.565076</v>
+        <v>1390286649.117557</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1267602482106261</v>
+        <v>0.1587356327933366</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05221283230489297</v>
+        <v>0.04499166737314234</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2700244438.29982</v>
+        <v>2626779421.775902</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1338768138785782</v>
+        <v>0.1424912252479227</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04306649167806029</v>
+        <v>0.0378606268008818</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4325434500.056816</v>
+        <v>3316904267.050337</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08456048678142108</v>
+        <v>0.09540646482556332</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04015635094744126</v>
+        <v>0.03509802343830223</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>170</v>
+      </c>
+      <c r="J42" t="n">
+        <v>387</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2652512329.924038</v>
+        <v>2846468423.11229</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2020117188752739</v>
+        <v>0.167389694989928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01606493737992675</v>
+        <v>0.01928157422482574</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1620137417.656001</v>
+        <v>1939283815.881562</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09704376457205455</v>
+        <v>0.07164671465331793</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02843109688531821</v>
+        <v>0.0344178424345557</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2400169413.487608</v>
+        <v>2341072096.615432</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1895754700947801</v>
+        <v>0.1565860578230865</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04555662474300461</v>
+        <v>0.05040331200234644</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5308613029.742544</v>
+        <v>4728477972.121501</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1787568823063103</v>
+        <v>0.1090919137750538</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04708246860837331</v>
+        <v>0.05558860000807284</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>235</v>
+      </c>
+      <c r="J46" t="n">
+        <v>390</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48.69710750206945</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4459925734.675919</v>
+        <v>3550766315.842572</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1268331250798319</v>
+        <v>0.1295042443976015</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03673936542826545</v>
+        <v>0.0456979558567145</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>175</v>
+      </c>
+      <c r="J47" t="n">
+        <v>391</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3776526988.705352</v>
+        <v>4675720519.695792</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09966584063153018</v>
+        <v>0.07353913228651238</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03344040909719118</v>
+        <v>0.03335340260897551</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>202</v>
+      </c>
+      <c r="J48" t="n">
+        <v>391</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1368563916.715973</v>
+        <v>1791322069.935739</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1540704967701776</v>
+        <v>0.1875560689446155</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02917616344932162</v>
+        <v>0.0291661102288066</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3343139129.337892</v>
+        <v>2868225075.706974</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1333145351356982</v>
+        <v>0.1187143759347348</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04762269509988803</v>
+        <v>0.03679847952617946</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1261286437.693411</v>
+        <v>1371419086.114945</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1618213951789289</v>
+        <v>0.1710014872120516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03674264622025993</v>
+        <v>0.04930738701796641</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5168014528.329521</v>
+        <v>4871501937.108911</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1035021189530843</v>
+        <v>0.1084016565600051</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05910277287698543</v>
+        <v>0.04561176102842307</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>228</v>
+      </c>
+      <c r="J52" t="n">
+        <v>391</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3393666599.183542</v>
+        <v>3138229439.282471</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1936416357305178</v>
+        <v>0.1489683357158141</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02917822286849282</v>
+        <v>0.02719934802133723</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3534696922.023755</v>
+        <v>4525522893.622357</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1403907949816803</v>
+        <v>0.151561446501511</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04188184654459816</v>
+        <v>0.04681208346357561</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>208</v>
+      </c>
+      <c r="J54" t="n">
+        <v>391</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4828305413.425264</v>
+        <v>3450343692.154578</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1985876913192081</v>
+        <v>0.2193249156850198</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02432022899169951</v>
+        <v>0.02221411898986649</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>190</v>
+      </c>
+      <c r="J55" t="n">
+        <v>389</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1795882477.261044</v>
+        <v>1370759716.416907</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1104945719445949</v>
+        <v>0.1309672148435748</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03691991173682115</v>
+        <v>0.05721610196476851</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4049355863.474204</v>
+        <v>4163739446.621577</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1356185938438531</v>
+        <v>0.1764984668781004</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01682831570304595</v>
+        <v>0.01911913900042168</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>166</v>
+      </c>
+      <c r="J57" t="n">
+        <v>391</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1586202976.801428</v>
+        <v>1494084280.389508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1762005413373949</v>
+        <v>0.1278085996397714</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02719600922795672</v>
+        <v>0.02668333928067454</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4801803784.234192</v>
+        <v>5116660508.736794</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1156645637732272</v>
+        <v>0.08452741935686785</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04549730887066234</v>
+        <v>0.03507359646501176</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>190</v>
+      </c>
+      <c r="J59" t="n">
+        <v>391</v>
+      </c>
+      <c r="K59" t="n">
+        <v>50.95099700482085</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2493185354.10575</v>
+        <v>3671039225.131821</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1848964825889451</v>
+        <v>0.1995983524285903</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0317002635288335</v>
+        <v>0.02508109430448506</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>391</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2882986996.955535</v>
+        <v>2502109840.78504</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1528209414361776</v>
+        <v>0.1562195439203243</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03248877142645264</v>
+        <v>0.0297401107840303</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1946931285.455794</v>
+        <v>2052313261.566721</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1232495668319514</v>
+        <v>0.1776415950659646</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03198758500040746</v>
+        <v>0.04500434511071336</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3641844842.17783</v>
+        <v>5529630152.620782</v>
       </c>
       <c r="F63" t="n">
-        <v>0.068164945415171</v>
+        <v>0.08365005517039903</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02953241821614581</v>
+        <v>0.04011961739759502</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>194</v>
+      </c>
+      <c r="J63" t="n">
+        <v>390</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49.68270306001948</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4248660341.264126</v>
+        <v>4434256732.054113</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1267107043911228</v>
+        <v>0.1874551587962</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02923360159184446</v>
+        <v>0.02428406315766379</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>194</v>
+      </c>
+      <c r="J64" t="n">
+        <v>390</v>
+      </c>
+      <c r="K64" t="n">
+        <v>49.81360575933309</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5689152931.751716</v>
+        <v>4410569278.550523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1562468357663205</v>
+        <v>0.1374985430398537</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02697023338134241</v>
+        <v>0.0195326965537561</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>291</v>
+      </c>
+      <c r="J65" t="n">
+        <v>391</v>
+      </c>
+      <c r="K65" t="n">
+        <v>52.41916738137108</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5542867313.643458</v>
+        <v>5204184014.781325</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1520463154826977</v>
+        <v>0.156202373893309</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05056134699643885</v>
+        <v>0.04421465351454233</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>193</v>
+      </c>
+      <c r="J66" t="n">
+        <v>391</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3420352717.423531</v>
+        <v>2237518249.293219</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08912422763805304</v>
+        <v>0.06451090847517903</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03808535513683511</v>
+        <v>0.0370672367874434</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4823890995.148121</v>
+        <v>4162742442.506934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1178330831852843</v>
+        <v>0.1359684017812831</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04184206158469597</v>
+        <v>0.04242283104667786</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>212</v>
+      </c>
+      <c r="J68" t="n">
+        <v>391</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1975109168.898409</v>
+        <v>1574410474.50666</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1395565165602952</v>
+        <v>0.1285606232244815</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04478707028416661</v>
+        <v>0.05930428037766549</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3376237933.245043</v>
+        <v>3352255647.609277</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07879239298938388</v>
+        <v>0.08371940633741892</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04465854961767225</v>
+        <v>0.0482469646585905</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4091431911.468813</v>
+        <v>3872744756.020527</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1197678517304075</v>
+        <v>0.1726750991405636</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02077409182219289</v>
+        <v>0.02535158750454409</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>278</v>
+      </c>
+      <c r="J71" t="n">
+        <v>390</v>
+      </c>
+      <c r="K71" t="n">
+        <v>36.97251737304097</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1929607915.734145</v>
+        <v>1506952849.662622</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07918032857820557</v>
+        <v>0.1033072433681561</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03908373243799805</v>
+        <v>0.03799939304125314</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3364380982.270496</v>
+        <v>2285309904.3868</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09466926316853948</v>
+        <v>0.1123198204119357</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03882525707300023</v>
+        <v>0.04148702656298881</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3922896198.930668</v>
+        <v>3723515100.170398</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1751744762627012</v>
+        <v>0.1218341532506554</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03024427646172731</v>
+        <v>0.02890971578082833</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>391</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1962052969.234919</v>
+        <v>1864680904.857048</v>
       </c>
       <c r="F75" t="n">
-        <v>0.136662349891918</v>
+        <v>0.1170591179222362</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03228701765557625</v>
+        <v>0.02995946095199659</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4347802763.180807</v>
+        <v>3452720247.801398</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1161745144225372</v>
+        <v>0.1130167081811594</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02521921917710939</v>
+        <v>0.03250786973489847</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>184</v>
+      </c>
+      <c r="J76" t="n">
+        <v>391</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1977368185.583854</v>
+        <v>1969230981.636612</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1684486168850088</v>
+        <v>0.1211364118874552</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03094319863595037</v>
+        <v>0.02373406328803133</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3796961618.095924</v>
+        <v>3361793948.588226</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09071287757590446</v>
+        <v>0.1186020407998154</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05239059783743114</v>
+        <v>0.03655878526431319</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>195</v>
+      </c>
+      <c r="J78" t="n">
+        <v>390</v>
+      </c>
+      <c r="K78" t="n">
+        <v>29.47357628831626</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1782520975.628727</v>
+        <v>1870696975.905178</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1671290398996435</v>
+        <v>0.1598283355741665</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02975684796773632</v>
+        <v>0.0352261673070886</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4146967772.994201</v>
+        <v>5396224168.490249</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1039273935935639</v>
+        <v>0.07538040285913809</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03820880434047581</v>
+        <v>0.03273512420316083</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>191</v>
+      </c>
+      <c r="J80" t="n">
+        <v>390</v>
+      </c>
+      <c r="K80" t="n">
+        <v>41.12318347364847</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4388412952.794838</v>
+        <v>5159090309.87244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1186930981995578</v>
+        <v>0.1147238552651938</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02564081443511146</v>
+        <v>0.03108523517865769</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>182</v>
+      </c>
+      <c r="J81" t="n">
+        <v>390</v>
+      </c>
+      <c r="K81" t="n">
+        <v>48.71337366817161</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4662463307.270063</v>
+        <v>3974993465.01157</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1369702723042828</v>
+        <v>0.1977235119497138</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0188968039846369</v>
+        <v>0.0215596496836197</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>268</v>
+      </c>
+      <c r="J82" t="n">
+        <v>391</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1780853407.444771</v>
+        <v>1610355078.695204</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095692255411991</v>
+        <v>0.1275875366728773</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03398498069529009</v>
+        <v>0.04001725809050846</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1877539390.736579</v>
+        <v>1950771558.2048</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1197460630300146</v>
+        <v>0.1134147452843373</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03296149049174041</v>
+        <v>0.05012691942605169</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2767986041.8207</v>
+        <v>3179042160.319688</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1627701027559143</v>
+        <v>0.1184208519305696</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04463851670695015</v>
+        <v>0.03778652509145864</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1697172537.977042</v>
+        <v>1937726720.48529</v>
       </c>
       <c r="F86" t="n">
-        <v>0.130846301086405</v>
+        <v>0.1085057587247114</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02077247668561942</v>
+        <v>0.02305515231828528</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>974174264.568581</v>
+        <v>1182401783.429841</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1734210834211344</v>
+        <v>0.1723274663088606</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04060671924174292</v>
+        <v>0.03436469984252515</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3625123484.682836</v>
+        <v>2292864181.172652</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1243359630847414</v>
+        <v>0.1437083282258794</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03641241354792138</v>
+        <v>0.02970024591731812</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3365491637.89949</v>
+        <v>2665022834.049939</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1081075961222865</v>
+        <v>0.1283794028511386</v>
       </c>
       <c r="G89" t="n">
-        <v>0.026153310362623</v>
+        <v>0.02919027609139931</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2043538346.826572</v>
+        <v>2051149418.827261</v>
       </c>
       <c r="F90" t="n">
-        <v>0.122618210897933</v>
+        <v>0.1104540080411967</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03886028801954526</v>
+        <v>0.04573953942648989</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1758452893.422239</v>
+        <v>1713534152.682188</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1292967044720476</v>
+        <v>0.1556753654249131</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06015688141771251</v>
+        <v>0.04658031054817036</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2172185133.626984</v>
+        <v>1908169575.654629</v>
       </c>
       <c r="F92" t="n">
-        <v>0.103036504453218</v>
+        <v>0.09101906155522455</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03216056062605789</v>
+        <v>0.03761512826956842</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3867266666.287961</v>
+        <v>3375629364.759739</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1354351722324013</v>
+        <v>0.09648890670843073</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04876313870027319</v>
+        <v>0.03344269074442165</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>186</v>
+      </c>
+      <c r="J93" t="n">
+        <v>390</v>
+      </c>
+      <c r="K93" t="n">
+        <v>28.40977314256547</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2454123778.39799</v>
+        <v>1574080257.660549</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1168913014615407</v>
+        <v>0.162644436559978</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03442857278082438</v>
+        <v>0.02894518906182657</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2379251183.579667</v>
+        <v>2065666892.859955</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1214456131582628</v>
+        <v>0.1128104469811088</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04861822320221557</v>
+        <v>0.04953818567056727</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1928583974.7692</v>
+        <v>1489005590.276332</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1331661976795045</v>
+        <v>0.1193140945120268</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03800957687383601</v>
+        <v>0.03782286469814134</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4734271119.047856</v>
+        <v>4835206253.337413</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1361837671819277</v>
+        <v>0.1614438523509391</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02531645242564857</v>
+        <v>0.02520300529405096</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>203</v>
+      </c>
+      <c r="J97" t="n">
+        <v>391</v>
+      </c>
+      <c r="K97" t="n">
+        <v>51.35982087672613</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2639440172.275077</v>
+        <v>3890077253.550446</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001143281355683</v>
+        <v>0.08410501233475305</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02301422860991567</v>
+        <v>0.02857845877472473</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>99</v>
+      </c>
+      <c r="J98" t="n">
+        <v>391</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3174600978.729181</v>
+        <v>3358205171.523864</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1210770978861643</v>
+        <v>0.1437874265573732</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03106432352123736</v>
+        <v>0.03016202728451596</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2950911680.922155</v>
+        <v>4436177224.448109</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1500582501736062</v>
+        <v>0.1553391601193166</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02031937888738449</v>
+        <v>0.02633854237607991</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>180</v>
+      </c>
+      <c r="J100" t="n">
+        <v>391</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3117768251.526769</v>
+        <v>2689625933.517951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1813773944870769</v>
+        <v>0.1989469112558071</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05496954456182734</v>
+        <v>0.04868491971722394</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>390</v>
+      </c>
+      <c r="K101" t="n">
+        <v>31.73396096094633</v>
       </c>
     </row>
   </sheetData>
